--- a/biology/Médecine/Artère_collatérale_ulnaire_inférieure/Artère_collatérale_ulnaire_inférieure.xlsx
+++ b/biology/Médecine/Artère_collatérale_ulnaire_inférieure/Artère_collatérale_ulnaire_inférieure.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Art%C3%A8re_collat%C3%A9rale_ulnaire_inf%C3%A9rieure</t>
+          <t>Artère_collatérale_ulnaire_inférieure</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'artère collatérale ulnaire inférieure (ou artère collatérale cubitale inférieure ou artère collatérale interne inférieure) est une artère du bras.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Art%C3%A8re_collat%C3%A9rale_ulnaire_inf%C3%A9rieure</t>
+          <t>Artère_collatérale_ulnaire_inférieure</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Origine</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'artère collatérale ulnaire inférieure est une branche collatérale de l'artère brachiale qui nait environ 5 cm au-dessus du pli du coude.
 </t>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Art%C3%A8re_collat%C3%A9rale_ulnaire_inf%C3%A9rieure</t>
+          <t>Artère_collatérale_ulnaire_inférieure</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,7 +556,9 @@
           <t>Trajet</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">L'artère collatérale ulnaire inférieure passe médialement sur le muscle brachial et perfore le septum intermusculaire médial du bras. Elle s'enroule autour de la face postérieure de l'humérus entre le triceps brachial et l'os lui-même.
 L'artère s'anastomose avec l'artère collatérale médiale formant un arc vasculaire au-dessus de la fosse de olécrane.
